--- a/TourGuide/TourGuide_Performance_Graphs.xlsx
+++ b/TourGuide/TourGuide_Performance_Graphs.xlsx
@@ -1280,7 +1280,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U31" activeCellId="0" sqref="U31"/>
@@ -1309,67 +1309,12 @@
     </row>
     <row r="2">
       <c r="B2" t="n" s="1">
-        <v>100.0</v>
+        <v>100000.0</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>0.0</v>
+        <v>256.0</v>
       </c>
       <c r="D2" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="C3" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D4" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D5" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="C6" t="n" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="D6" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n" s="1">
-        <v>100000.0</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>212.0</v>
-      </c>
-      <c r="D7" t="n" s="1">
         <v>900.0</v>
       </c>
     </row>
@@ -1390,7 +1335,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
@@ -1419,67 +1364,12 @@
     </row>
     <row r="2">
       <c r="B2" t="n" s="1">
-        <v>100.0</v>
+        <v>100000.0</v>
       </c>
       <c r="C2" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="D2" t="n" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="C3" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D4" t="n" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="D5" t="n" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="C6" t="n" s="1">
-        <v>131.0</v>
-      </c>
-      <c r="D6" t="n" s="1">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n" s="1">
-        <v>100000.0</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>261.0</v>
-      </c>
-      <c r="D7" t="n" s="1">
         <v>1200.0</v>
       </c>
     </row>

--- a/TourGuide/TourGuide_Performance_Graphs.xlsx
+++ b/TourGuide/TourGuide_Performance_Graphs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t xml:space="preserve">Users</t>
   </si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Improved Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -349,22 +355,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -376,22 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,22 +453,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,6 +479,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -501,11 +495,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="79076210"/>
-        <c:axId val="22638419"/>
+        <c:axId val="99592797"/>
+        <c:axId val="43674592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79076210"/>
+        <c:axId val="99592797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22638419"/>
+        <c:crossAx val="43674592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -544,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22638419"/>
+        <c:axId val="43674592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79076210"/>
+        <c:crossAx val="99592797"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -781,19 +775,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -805,22 +799,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,19 +873,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -917,6 +896,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -930,11 +912,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63884728"/>
-        <c:axId val="25736778"/>
+        <c:axId val="14109671"/>
+        <c:axId val="40212299"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63884728"/>
+        <c:axId val="14109671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +947,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25736778"/>
+        <c:crossAx val="40212299"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25736778"/>
+        <c:axId val="40212299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63884728"/>
+        <c:crossAx val="14109671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,9 +1092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>410400</xdr:colOff>
+      <xdr:colOff>410040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1121,7 +1103,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2833200"/>
-        <a:ext cx="13589280" cy="8401680"/>
+        <a:ext cx="13588920" cy="8401320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1145,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1156,7 +1138,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="138600" y="2775600"/>
-        <a:ext cx="14598360" cy="9026280"/>
+        <a:ext cx="14597280" cy="9025920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1282,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U31" activeCellId="0" sqref="U31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1296,26 +1278,28 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="n" s="1">
-        <v>100000.0</v>
-      </c>
-      <c r="C2" t="n" s="1">
-        <v>256.0</v>
-      </c>
-      <c r="D2" t="n" s="1">
-        <v>900.0</v>
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -1335,10 +1319,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1351,25 +1335,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="n" s="1">
-        <v>100000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="1">
         <v>1200.0</v>
       </c>
     </row>

--- a/TourGuide/TourGuide_Performance_Graphs.xlsx
+++ b/TourGuide/TourGuide_Performance_Graphs.xlsx
@@ -1262,7 +1262,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1291,15 +1291,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>900</v>
+    <row r="2">
+      <c r="B2" t="n" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C2" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="C3" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="C6" t="n" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="D6" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="D7" t="n" s="1">
+        <v>900.0</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1374,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
@@ -1370,6 +1425,50 @@
         <v>1200.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="C6" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="1">
+        <v>1200.0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/TourGuide/TourGuide_Performance_Graphs.xlsx
+++ b/TourGuide/TourGuide_Performance_Graphs.xlsx
@@ -1262,7 +1262,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1310,50 +1310,6 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="C4" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D4" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="C5" t="n" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D5" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="C6" t="n" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="D6" t="n" s="1">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n" s="1">
-        <v>100000.0</v>
-      </c>
-      <c r="C7" t="n" s="1">
-        <v>212.0</v>
-      </c>
-      <c r="D7" t="n" s="1">
         <v>900.0</v>
       </c>
     </row>

--- a/TourGuide/TourGuide_Performance_Graphs.xlsx
+++ b/TourGuide/TourGuide_Performance_Graphs.xlsx
@@ -1262,7 +1262,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1310,6 +1310,50 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="C4" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D4" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="C5" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="C6" t="n" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="D6" t="n" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="C7" t="n" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="D7" t="n" s="1">
         <v>900.0</v>
       </c>
     </row>
@@ -1419,7 +1463,7 @@
         <v>100000.0</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n" s="1">
         <v>1200.0</v>
